--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501737.8682514601</v>
+        <v>592373.2249468984</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12477039.73816156</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7009463.231764765</v>
+        <v>7622616.185043048</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9282160.724983832</v>
+        <v>8982632.41593078</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C2" t="n">
-        <v>57.08569488870531</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6.396723986041279</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -789,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553087</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>67.3916944814809</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>112.751666541191</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="F5" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.1796412850196</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>137.3861289370411</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="7">
@@ -1096,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U7" t="n">
-        <v>63.27499344337884</v>
+        <v>29.00708539155863</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F8" t="n">
-        <v>114.3676009639523</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>56.30621642210101</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046388</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.3209601214385</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>145.3848492331076</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>150.2158902337405</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>228.0656025585478</v>
+        <v>134.0513867710689</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>346.4719254930603</v>
+        <v>24.14763241892726</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1819,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.2419515106227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>173.2989701645123</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>131.9809553984416</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>46.90342393179426</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>145.8428685390588</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>76.42353197724898</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>30.94422611183121</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="H22" t="n">
-        <v>93.68345300136622</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>164.6037977632921</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2381,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>72.97362349455935</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>50.5559617506116</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>68.85005436466994</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>57.81578986397375</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>129.5765970421788</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>13.02719212039676</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>155.8380202720393</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2849,16 +2851,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>174.563945116776</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W31" t="n">
-        <v>210.6180377869401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>99.50249420969934</v>
       </c>
       <c r="E32" t="n">
-        <v>75.45713216103655</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>190.5278853151871</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>52.23490948285971</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>341.0298525897914</v>
       </c>
       <c r="F35" t="n">
-        <v>58.02202654638059</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>85.17289288835083</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3560,13 +3562,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>25.73722946637103</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>97.9165299014126</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>229.796569204138</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3913,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>69.16121449564808</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.63843252358405</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>124.1243958230291</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4034,13 +4036,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>56.91547624318606</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>65.36690640948963</v>
       </c>
       <c r="F46" t="n">
-        <v>12.09093917747711</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.4030692042955</v>
+        <v>210.8831693494278</v>
       </c>
       <c r="C2" t="n">
-        <v>141.7407511348962</v>
+        <v>21.46338433294324</v>
       </c>
       <c r="D2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201471</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372652</v>
+        <v>589.722739382397</v>
       </c>
       <c r="T2" t="n">
-        <v>388.8228542207804</v>
+        <v>400.3029543659124</v>
       </c>
       <c r="U2" t="n">
-        <v>388.8228542207804</v>
+        <v>400.3029543659124</v>
       </c>
       <c r="V2" t="n">
-        <v>388.8228542207804</v>
+        <v>400.3029543659124</v>
       </c>
       <c r="W2" t="n">
-        <v>388.8228542207804</v>
+        <v>400.3029543659124</v>
       </c>
       <c r="X2" t="n">
-        <v>199.4030692042955</v>
+        <v>400.3029543659124</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.4030692042955</v>
+        <v>400.3029543659124</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U3" t="n">
-        <v>371.2627786323101</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V3" t="n">
-        <v>181.8429936158253</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="W3" t="n">
-        <v>15.0020469733056</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>181.8429936158251</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.6494995757273</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="C4" t="n">
-        <v>165.6494995757273</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="D4" t="n">
-        <v>165.6494995757273</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="E4" t="n">
-        <v>165.6494995757273</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="F4" t="n">
-        <v>165.6494995757273</v>
+        <v>489.3218289035393</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>165.6494995757274</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428104</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394161</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340728</v>
+        <v>373.5399563830971</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287296</v>
+        <v>559.1902876777536</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652798</v>
+        <v>721.9284911143037</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768594</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S4" t="n">
-        <v>423.1417032603746</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T4" t="n">
-        <v>233.7219182438898</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U4" t="n">
-        <v>165.6494995757273</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V4" t="n">
-        <v>165.6494995757273</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="W4" t="n">
-        <v>165.6494995757273</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="X4" t="n">
-        <v>165.6494995757273</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.6494995757273</v>
+        <v>636.2117764014496</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W5" t="n">
-        <v>522.1002068716687</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="X5" t="n">
-        <v>255.7225503044907</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.7225503044907</v>
+        <v>560.6825636487957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>652.7312295849117</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="C6" t="n">
-        <v>652.7312295849117</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="D6" t="n">
-        <v>609.1154303071141</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E6" t="n">
-        <v>449.8779753016586</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V6" t="n">
-        <v>652.7312295849117</v>
+        <v>611.328481052108</v>
       </c>
       <c r="W6" t="n">
-        <v>652.7312295849117</v>
+        <v>421.9086960356229</v>
       </c>
       <c r="X6" t="n">
-        <v>652.7312295849117</v>
+        <v>421.9086960356229</v>
       </c>
       <c r="Y6" t="n">
-        <v>652.7312295849117</v>
+        <v>232.4889110191378</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>106.7151088594235</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>118.7527324484197</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>304.4030637430767</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>471.6341805242527</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>634.3723839608029</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846285</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>612.5614882768605</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>423.1417032603754</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>233.7219182438903</v>
       </c>
       <c r="U7" t="n">
-        <v>990.9413852147328</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="V7" t="n">
-        <v>736.256897008846</v>
+        <v>204.4218319897907</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>886.1202413417727</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="C8" t="n">
-        <v>517.1577244013611</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="D8" t="n">
-        <v>158.8920257946106</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E8" t="n">
-        <v>158.8920257946106</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F8" t="n">
-        <v>43.3691965380931</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301904</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232724</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904655</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904655</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642786</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642786</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642786</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642786</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W8" t="n">
-        <v>2036.325171642786</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.859413381706</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.720081405894</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.4666540631142</v>
+        <v>734.6266313708971</v>
       </c>
       <c r="C9" t="n">
-        <v>359.0136247819872</v>
+        <v>560.1736020897702</v>
       </c>
       <c r="D9" t="n">
-        <v>302.1386586990569</v>
+        <v>560.1736020897702</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1386586990569</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1386586990569</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562335</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>508.4654164929051</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>766.0165520528931</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>1085.923447521403</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1428.705971516035</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>1720.065217770601</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>1934.573633331502</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059889</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904655</v>
+        <v>734.6266313708971</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406373</v>
+        <v>734.6266313708971</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880349</v>
+        <v>734.6266313708971</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013613</v>
+        <v>734.6266313708971</v>
       </c>
       <c r="V9" t="n">
-        <v>1371.531146781871</v>
+        <v>734.6266313708971</v>
       </c>
       <c r="W9" t="n">
-        <v>1117.293790053669</v>
+        <v>734.6266313708971</v>
       </c>
       <c r="X9" t="n">
-        <v>909.4422898481362</v>
+        <v>734.6266313708971</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.6819910831823</v>
+        <v>734.6266313708971</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1063.572035770498</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="C10" t="n">
-        <v>916.7186527067531</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="D10" t="n">
-        <v>766.6020132944174</v>
+        <v>596.6088585722914</v>
       </c>
       <c r="E10" t="n">
-        <v>618.6889197120242</v>
+        <v>448.6957649898983</v>
       </c>
       <c r="F10" t="n">
-        <v>471.7989722141139</v>
+        <v>448.6957649898983</v>
       </c>
       <c r="G10" t="n">
-        <v>303.6661428091322</v>
+        <v>296.9625425315745</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I10" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>58.69630920174243</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246707</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728887</v>
+        <v>100.3335179349382</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640791</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152953</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271087</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693648</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693648</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S10" t="n">
-        <v>1287.175893077874</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T10" t="n">
-        <v>1063.572035770498</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U10" t="n">
-        <v>1063.572035770498</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="V10" t="n">
-        <v>1063.572035770498</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="W10" t="n">
-        <v>1063.572035770498</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="X10" t="n">
-        <v>1063.572035770498</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="Y10" t="n">
-        <v>1063.572035770498</v>
+        <v>746.7254979846272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.583838282732</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5072,19 +5074,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X11" t="n">
-        <v>2047.583838282732</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y11" t="n">
-        <v>2047.583838282732</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
@@ -5197,16 +5199,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1261.532988317206</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>892.5704713767946</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5300,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>2038.27216035714</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y14" t="n">
-        <v>1648.132828381328</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5354,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5425,13 +5427,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5467,19 +5469,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W16" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1689.318139675982</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C17" t="n">
-        <v>1320.35562273557</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
@@ -5513,22 +5515,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>3192.291725247109</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2839.523069976995</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X17" t="n">
-        <v>2466.057311715915</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2075.917979740103</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>532.8809675997582</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="C19" t="n">
-        <v>363.9447846718513</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>213.8281452595155</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>213.8281452595155</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
-        <v>213.8281452595155</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5707,16 +5709,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1224.739181610489</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>935.322011573528</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X19" t="n">
-        <v>935.322011573528</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y19" t="n">
-        <v>714.5294324299979</v>
+        <v>970.0546934046018</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1238.038871968309</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C20" t="n">
-        <v>869.0763550278978</v>
+        <v>806.3384156653785</v>
       </c>
       <c r="D20" t="n">
-        <v>869.0763550278978</v>
+        <v>806.3384156653785</v>
       </c>
       <c r="E20" t="n">
-        <v>483.2881024296535</v>
+        <v>806.3384156653785</v>
       </c>
       <c r="F20" t="n">
-        <v>483.2881024296535</v>
+        <v>395.352510875771</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>395.352510875771</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>97.7689104845382</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539437</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269323</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008243</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.638712032431</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="21">
@@ -5820,31 +5822,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.3234075408147</v>
+        <v>2151.073568494537</v>
       </c>
       <c r="C22" t="n">
-        <v>703.3872246129079</v>
+        <v>1982.13738556663</v>
       </c>
       <c r="D22" t="n">
-        <v>553.2705852005721</v>
+        <v>1832.020746154295</v>
       </c>
       <c r="E22" t="n">
-        <v>405.357491618179</v>
+        <v>1684.107652571901</v>
       </c>
       <c r="F22" t="n">
-        <v>258.4675441202686</v>
+        <v>1537.217705073991</v>
       </c>
       <c r="G22" t="n">
-        <v>258.4675441202686</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>2781.504163366324</v>
       </c>
       <c r="X22" t="n">
-        <v>872.3234075408147</v>
+        <v>2553.514612468307</v>
       </c>
       <c r="Y22" t="n">
-        <v>872.3234075408147</v>
+        <v>2332.722033324777</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1221.525483338121</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C23" t="n">
-        <v>852.5629663977095</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D23" t="n">
-        <v>494.2972677909589</v>
+        <v>958.1473305693555</v>
       </c>
       <c r="E23" t="n">
-        <v>108.5090151927147</v>
+        <v>572.3590779711112</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>572.3590779711112</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6017,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>1998.264655378055</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y23" t="n">
-        <v>1608.125323402243</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1761.12878874783</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>1761.12878874783</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>1761.12878874783</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>1613.215695165437</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>1613.215695165437</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>1613.215695165437</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366699</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193526</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.322864763052</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U25" t="n">
-        <v>2533.219997888695</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V25" t="n">
-        <v>2278.535509682808</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W25" t="n">
-        <v>1989.118339645848</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X25" t="n">
-        <v>1761.12878874783</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y25" t="n">
-        <v>1761.12878874783</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2366.344253709365</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>2366.344253709365</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2392.59927678083</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C28" t="n">
-        <v>2223.663093852923</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D28" t="n">
-        <v>2073.546454440587</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E28" t="n">
-        <v>1925.633360858194</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F28" t="n">
-        <v>1778.743413360284</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G28" t="n">
-        <v>1611.040576735003</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>1796.409096530736</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>1507.30622965638</v>
       </c>
       <c r="V28" t="n">
-        <v>3312.447041689577</v>
+        <v>1252.621741450493</v>
       </c>
       <c r="W28" t="n">
-        <v>3023.029871652617</v>
+        <v>963.2045714135322</v>
       </c>
       <c r="X28" t="n">
-        <v>2795.0403207546</v>
+        <v>735.2150205155149</v>
       </c>
       <c r="Y28" t="n">
-        <v>2574.24774161107</v>
+        <v>514.4224413719847</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2303.170539913434</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C29" t="n">
-        <v>1934.208022973022</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D29" t="n">
-        <v>1575.942324366272</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2866.097597267229</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>2866.097597267229</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2689.770379977556</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="30">
@@ -6531,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.2880032601528</v>
+        <v>2392.599276780831</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3518203322459</v>
+        <v>2223.663093852924</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>2073.546454440589</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>1925.633360858196</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>1778.743413360285</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J31" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O31" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P31" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S31" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T31" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U31" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V31" t="n">
-        <v>1837.464090846021</v>
+        <v>3312.447041689579</v>
       </c>
       <c r="W31" t="n">
-        <v>1624.71859813194</v>
+        <v>3023.029871652619</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.729047233923</v>
+        <v>2795.040320754601</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.936468090393</v>
+        <v>2574.247741611071</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1308.370295943747</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C32" t="n">
-        <v>1308.370295943747</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.370295943747</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="33">
@@ -6768,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1931.789305875496</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C34" t="n">
-        <v>1762.853122947589</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D34" t="n">
-        <v>1612.736483535254</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>3044.089480193524</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>3044.089480193524</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>2851.637070784244</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W34" t="n">
-        <v>2562.219900747284</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X34" t="n">
-        <v>2334.230349849266</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y34" t="n">
-        <v>2113.437770705736</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1238.038871968308</v>
+        <v>1964.273285499504</v>
       </c>
       <c r="C35" t="n">
-        <v>1238.038871968308</v>
+        <v>1595.310768559092</v>
       </c>
       <c r="D35" t="n">
-        <v>879.7731733615576</v>
+        <v>1237.045069952341</v>
       </c>
       <c r="E35" t="n">
-        <v>879.7731733615576</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883006</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V35" t="n">
-        <v>2741.012457539436</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W35" t="n">
-        <v>2388.243802269321</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X35" t="n">
-        <v>2014.778044008242</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y35" t="n">
-        <v>1624.63871203243</v>
+        <v>2350.873125563625</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,40 +7022,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.4780323548191</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C37" t="n">
-        <v>364.5418494269122</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D37" t="n">
-        <v>214.4252100145765</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.010285469454</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.325797263567</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.908627226606</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X37" t="n">
-        <v>935.919076328589</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.1264971850588</v>
+        <v>1540.3362096043</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796252</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392135</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D38" t="n">
-        <v>194.542240332463</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7172,25 +7174,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7208,16 +7210,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2729.809727313141</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="39">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2085.807325826217</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>1716.844808885805</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.546497866151</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>2862.546497866151</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>2472.407165890339</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>917.9306290998774</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>748.9944461719705</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>598.8778067596347</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>450.9647131772416</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>304.0747656793312</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>136.3719290540502</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7612,7 +7614,7 @@
         <v>1320.371673073647</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>1099.579093930117</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>1715.892666966217</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1346.930150025805</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>988.6644514190546</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>602.8761988208103</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>191.8902940312027</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W44" t="n">
-        <v>2367.25366140713</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X44" t="n">
-        <v>2367.25366140713</v>
+        <v>2492.63183900615</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.114329431319</v>
+        <v>2102.492507030338</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7731,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>690.674942710575</v>
+        <v>2088.986216231254</v>
       </c>
       <c r="C46" t="n">
-        <v>690.674942710575</v>
+        <v>2088.986216231254</v>
       </c>
       <c r="D46" t="n">
-        <v>540.5583032982393</v>
+        <v>2088.986216231254</v>
       </c>
       <c r="E46" t="n">
-        <v>392.6452097158461</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>2814.736339304341</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>2560.051851098454</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>2270.634681061494</v>
       </c>
       <c r="X46" t="n">
-        <v>872.3234075408147</v>
+        <v>2270.634681061494</v>
       </c>
       <c r="Y46" t="n">
-        <v>872.3234075408147</v>
+        <v>2270.634681061494</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471078</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777592</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8377,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>145.2551346857775</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.9776909938864</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528931</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C2" t="n">
-        <v>308.1871968823023</v>
+        <v>177.7473046046878</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>348.2863176346417</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22567,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.3652991436814</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>25.91829388988705</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -22610,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>1.360646473773016</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22644,7 +22646,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550659</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714241</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681299</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>86.52244598482508</v>
+        <v>64.16939599459988</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098464</v>
       </c>
     </row>
     <row r="4">
@@ -22714,13 +22716,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,22 +22749,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845829</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917628</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378014</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>218.8733870119694</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>139.385976782637</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22784,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046873</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543627</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>216.757832896167</v>
       </c>
       <c r="F5" t="n">
-        <v>174.5968602363849</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.83417464571</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="6">
@@ -22860,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>104.2654242796192</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>95.4144582123842</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098415</v>
       </c>
     </row>
     <row r="7">
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>19.254668629176</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>36.19408632377989</v>
       </c>
       <c r="U7" t="n">
-        <v>222.9836370592986</v>
+        <v>257.2579961018916</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>98.99741117027079</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
-        <v>292.5084447777592</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>221.0654014799591</v>
       </c>
     </row>
     <row r="9">
@@ -23097,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>91.13884914253774</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23118,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.59026569570388</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23179,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>21.86197186552027</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23188,10 +23190,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>16.78604496897364</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23200,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>141.6654981199213</v>
+        <v>235.6797139074001</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23.25917518540876</v>
+        <v>345.5834682595418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.34270184147212</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>209.4348714989683</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>195.7713030716934</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>120.3433971668336</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>20.18293971996945</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23975,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>334.4981936762044</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>10.63270366109474</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911051</v>
       </c>
       <c r="H22" t="n">
-        <v>51.07156191295456</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>246.3179278901613</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>296.7574771839097</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>94.19905316370918</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>183.2875889591581</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>255.1805474109837</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>291.4251788534393</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>89.97235223399039</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>239.1104512034312</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>226.0923498002225</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>211.6739935392776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24895,10 +24897,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W31" t="n">
-        <v>75.90496054965092</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>255.1805474109836</v>
       </c>
       <c r="E32" t="n">
-        <v>306.4732379112252</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>61.60975800864094</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>166.3497438692351</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>40.90051748247038</v>
       </c>
       <c r="F35" t="n">
-        <v>348.8540191953309</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>296.757477183911</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>302.0150290037639</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>256.7665117192703</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>64.81119518318249</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>75.5938004186727</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.9462208285107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>286.7973298304244</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>292.325492474227</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>81.06705623707954</v>
       </c>
       <c r="F46" t="n">
-        <v>133.3301088454541</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>470601.0454114971</v>
+        <v>470601.0454114968</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533535.276715002</v>
+        <v>470601.0454114975</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729119.2639276341</v>
+        <v>470601.0454114971</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.761851033</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510331</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.761851033</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.7618510326</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.761851033</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878691.7618510326</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>171419.5356187814</v>
+      </c>
+      <c r="C2" t="n">
+        <v>171419.5356187816</v>
+      </c>
+      <c r="D2" t="n">
         <v>171419.5356187815</v>
       </c>
-      <c r="C2" t="n">
-        <v>193768.2521372568</v>
-      </c>
-      <c r="D2" t="n">
-        <v>265569.8802231801</v>
-      </c>
       <c r="E2" t="n">
-        <v>323947.2440223747</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="F2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="G2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="H2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="I2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="L2" t="n">
         <v>323947.2440223744</v>
@@ -26350,10 +26352,10 @@
         <v>323947.2440223744</v>
       </c>
       <c r="O2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="P2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="P2" t="n">
-        <v>323947.2440223743</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208452</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477418</v>
+        <v>6.73715068785441e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599833</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669091</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.4285504062</v>
+        <v>1.243522547156317e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932032</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608602</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>10637.53658444007</v>
       </c>
       <c r="C4" t="n">
-        <v>13649.17455297509</v>
+        <v>10637.53658444008</v>
       </c>
       <c r="D4" t="n">
-        <v>16719.08796814454</v>
+        <v>10637.53658444007</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="K4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="L4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161356</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56985.80041161359</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161357</v>
-      </c>
-      <c r="C5" t="n">
-        <v>63047.80320426619</v>
-      </c>
-      <c r="D5" t="n">
-        <v>85199.0818558723</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26491,25 +26493,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-487560.7038981176</v>
+        <v>-487560.7038981174</v>
       </c>
       <c r="C6" t="n">
-        <v>32735.17183524129</v>
+        <v>103796.1986227272</v>
       </c>
       <c r="D6" t="n">
-        <v>-128072.47056082</v>
+        <v>103796.1986227281</v>
       </c>
       <c r="E6" t="n">
-        <v>-36160.2454080192</v>
+        <v>-387264.1432747779</v>
       </c>
       <c r="F6" t="n">
         <v>239870.5003588897</v>
       </c>
       <c r="G6" t="n">
-        <v>239870.5003588897</v>
+        <v>239870.5003588898</v>
       </c>
       <c r="H6" t="n">
-        <v>239870.5003588897</v>
+        <v>239870.5003588898</v>
       </c>
       <c r="I6" t="n">
-        <v>239870.5003588897</v>
+        <v>239870.5003588898</v>
       </c>
       <c r="J6" t="n">
         <v>190805.5556303451</v>
       </c>
       <c r="K6" t="n">
-        <v>220262.0718084835</v>
+        <v>239870.5003588896</v>
       </c>
       <c r="L6" t="n">
-        <v>169409.6934495694</v>
+        <v>239870.5003588897</v>
       </c>
       <c r="M6" t="n">
-        <v>167779.1477428037</v>
+        <v>79414.05849101234</v>
       </c>
       <c r="N6" t="n">
-        <v>239870.5003588896</v>
+        <v>239870.5003588897</v>
       </c>
       <c r="O6" t="n">
+        <v>239870.5003588898</v>
+      </c>
+      <c r="P6" t="n">
         <v>239870.5003588897</v>
-      </c>
-      <c r="P6" t="n">
-        <v>239870.5003588896</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>548.4699409129043</v>
+      </c>
+      <c r="C3" t="n">
+        <v>548.4699409129049</v>
+      </c>
+      <c r="D3" t="n">
         <v>548.4699409129046</v>
-      </c>
-      <c r="C3" t="n">
-        <v>614.0550137694783</v>
-      </c>
-      <c r="D3" t="n">
-        <v>853.7106645376848</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261638</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26808,28 +26810,28 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
-        <v>65.58507285657367</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682066</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556133</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518619</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246576</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761289</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518619</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246576</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761289</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518619</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246576</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761289</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33515,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33892,7 +33894,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
         <v>557.281137600381</v>
@@ -34147,7 +34149,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746405</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
         <v>473.099994678169</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34387,7 +34389,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781681</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563569</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068227</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.45844197068201</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>92.63945645062408</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>168.9203199809859</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>164.3820236732831</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1432842295775</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>222.3958714428157</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410659</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348417</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231599</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971899</v>
+        <v>86.19340501175009</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900913</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212426</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735795</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748829</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349601</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37795,7 +37797,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219371</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>592373.2249468984</v>
+        <v>543042.0672121374</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12433859.31651125</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043048</v>
+        <v>6544539.720854478</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8982632.41593078</v>
+        <v>9516242.476282004</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.396723986041279</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.1725371760943</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>165.4291737832665</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663197</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663197</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663197</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553087</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>112.751666541191</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>76.60860108437679</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>187.5255871663202</v>
+        <v>196.2463740196301</v>
       </c>
       <c r="E5" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663202</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>137.3861289370411</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663202</v>
+        <v>108.5178201486944</v>
       </c>
     </row>
     <row r="7">
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845744</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>187.5255871663202</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>29.00708539155863</v>
+        <v>143.7876247641761</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>187.5255871663202</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>237.2821509272386</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663199</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663199</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.1725371760945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15.3209601214385</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>150.2158902337405</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>115.9758081680582</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>308.3664578818496</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>134.0513867710689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>176.2746049568399</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>44.75951530680749</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>24.14763241892726</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.86209348694693</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>168.4773873632145</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>173.2989701645123</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>28.72759225321317</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.90342393179426</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>208.7351665134852</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>220.2829721113091</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>30.94422611183121</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>71.67037196991771</v>
+        <v>101.3208278811443</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>308.752762679791</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>164.6037977632921</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>28.20584125154443</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>68.85005436466994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>278.7366773519186</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>129.5765970421788</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>140.1996960751715</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>27.59754090161685</v>
       </c>
       <c r="E29" t="n">
-        <v>155.8380202720393</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>17.25588147840214</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>99.50249420969934</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>64.37012338319016</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>224.7562560951392</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.23490948285971</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>341.0298525897914</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>56.9154762431865</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>59.9110887090654</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,10 +3480,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>225.7250450145789</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>25.73722946637103</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492396</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>229.796569204138</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>282.3935320802032</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>90.41948680756566</v>
       </c>
       <c r="H43" t="n">
-        <v>69.16121449564808</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>124.1243958230291</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>235.7633545874657</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>65.36690640948963</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>90.41948680756566</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.8831693494278</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294324</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020258</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>589.722739382397</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659124</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659124</v>
+        <v>820.230080101654</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659124</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659124</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659124</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659124</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330558</v>
+        <v>188.1972859387735</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024199</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546596</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017055</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652789</v>
+        <v>858.046441637462</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652789</v>
+        <v>858.046441637462</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652789</v>
+        <v>858.046441637462</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487943</v>
+        <v>603.8090849092603</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323097</v>
+        <v>395.9575847037274</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158251</v>
+        <v>188.1972859387735</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>636.2117764014496</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>636.2117764014496</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>636.2117764014496</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>636.2117764014496</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>489.3218289035393</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757274</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818525</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884406</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830971</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777536</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143037</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652789</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652789</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="V4" t="n">
-        <v>636.2117764014496</v>
+        <v>533.7933752329596</v>
       </c>
       <c r="W4" t="n">
-        <v>636.2117764014496</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="X4" t="n">
-        <v>636.2117764014496</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="Y4" t="n">
-        <v>636.2117764014496</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.6825636487957</v>
+        <v>1154.588106027445</v>
       </c>
       <c r="C5" t="n">
-        <v>371.2627786323106</v>
+        <v>1154.588106027445</v>
       </c>
       <c r="D5" t="n">
-        <v>181.8429936158256</v>
+        <v>956.3594454015558</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330562</v>
+        <v>956.3594454015558</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330562</v>
+        <v>545.3735406119483</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330562</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330562</v>
+        <v>128.9212793038229</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>107.8290791267618</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>269.6240911917569</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>507.2468724099484</v>
       </c>
       <c r="M5" t="n">
-        <v>347.121819064476</v>
+        <v>803.3174389675509</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123834</v>
+        <v>1108.792545203136</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985592</v>
+        <v>1383.90876451977</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020275</v>
+        <v>1584.213091808873</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652808</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652808</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652808</v>
+        <v>1544.727438003257</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652808</v>
+        <v>1544.727438003257</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652808</v>
+        <v>1544.727438003257</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652808</v>
+        <v>1544.727438003257</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652808</v>
+        <v>1544.727438003257</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652808</v>
+        <v>1544.727438003257</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.6825636487957</v>
+        <v>1154.588106027445</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.27357399906981</v>
+        <v>748.6875884097325</v>
       </c>
       <c r="C6" t="n">
-        <v>64.27357399906981</v>
+        <v>574.2345591286055</v>
       </c>
       <c r="D6" t="n">
-        <v>64.27357399906981</v>
+        <v>574.2345591286055</v>
       </c>
       <c r="E6" t="n">
-        <v>64.27357399906981</v>
+        <v>414.9971041231499</v>
       </c>
       <c r="F6" t="n">
-        <v>64.27357399906981</v>
+        <v>268.4625461500349</v>
       </c>
       <c r="G6" t="n">
-        <v>64.27357399906981</v>
+        <v>131.361181930301</v>
       </c>
       <c r="H6" t="n">
-        <v>64.27357399906981</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>778.8283598952908</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>1064.162230328624</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476354</v>
+        <v>1302.967182080082</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017073</v>
+        <v>1475.296143033791</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652808</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652808</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652808</v>
+        <v>1543.309735648993</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652808</v>
+        <v>1347.691013115833</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652808</v>
+        <v>1347.691013115833</v>
       </c>
       <c r="V6" t="n">
-        <v>611.328481052108</v>
+        <v>1112.53890488409</v>
       </c>
       <c r="W6" t="n">
-        <v>421.9086960356229</v>
+        <v>858.3015481558884</v>
       </c>
       <c r="X6" t="n">
-        <v>421.9086960356229</v>
+        <v>858.3015481558884</v>
       </c>
       <c r="Y6" t="n">
-        <v>232.4889110191378</v>
+        <v>748.6875884097325</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>35.96388306992289</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7151088594235</v>
+        <v>169.472972355726</v>
       </c>
       <c r="L7" t="n">
-        <v>118.7527324484197</v>
+        <v>395.84507567387</v>
       </c>
       <c r="M7" t="n">
-        <v>304.4030637430767</v>
+        <v>644.9118420064103</v>
       </c>
       <c r="N7" t="n">
-        <v>471.6341805242527</v>
+        <v>893.4909737490111</v>
       </c>
       <c r="O7" t="n">
-        <v>634.3723839608029</v>
+        <v>1107.077740097166</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652808</v>
+        <v>1266.31743473321</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846285</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>612.5614882768605</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>423.1417032603754</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>233.7219182438903</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="U7" t="n">
-        <v>204.4218319897907</v>
+        <v>805.8204202034234</v>
       </c>
       <c r="V7" t="n">
-        <v>204.4218319897907</v>
+        <v>551.1359319975365</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330562</v>
+        <v>261.7187619605759</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330562</v>
+        <v>33.72921106255855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>583.2614020227597</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="C8" t="n">
-        <v>583.2614020227597</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D8" t="n">
-        <v>393.841617006275</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897903</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897903</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678495</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652795</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652795</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652795</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652795</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.2614020227597</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>734.6266313708971</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>560.1736020897702</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>560.1736020897702</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>400.9361470843146</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>254.4015891111996</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8624079336487</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>734.6266313708971</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>734.6266313708971</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>734.6266313708971</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>734.6266313708971</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>734.6266313708971</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>734.6266313708971</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>734.6266313708971</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>734.6266313708971</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>746.7254979846272</v>
+        <v>496.992271614743</v>
       </c>
       <c r="C10" t="n">
-        <v>746.7254979846272</v>
+        <v>496.992271614743</v>
       </c>
       <c r="D10" t="n">
-        <v>596.6088585722914</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E10" t="n">
-        <v>448.6957649898983</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F10" t="n">
-        <v>448.6957649898983</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>296.9625425315745</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>141.9790366408477</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>100.3335179349382</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>285.9838492295949</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242515</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608017</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652795</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846272</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846272</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846272</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>746.7254979846272</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>746.7254979846272</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>746.7254979846272</v>
+        <v>1007.202020795234</v>
       </c>
       <c r="W10" t="n">
-        <v>746.7254979846272</v>
+        <v>717.7848507582731</v>
       </c>
       <c r="X10" t="n">
-        <v>746.7254979846272</v>
+        <v>717.7848507582731</v>
       </c>
       <c r="Y10" t="n">
-        <v>746.7254979846272</v>
+        <v>496.992271614743</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1128.559790961282</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>717.5738861716743</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,7 +5062,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5074,19 +5074,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136266</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1268.450640518902</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>979.0334704819413</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>751.043919583924</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5302,13 +5302,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
         <v>2755.806928794324</v>
@@ -5317,13 +5317,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2047.583838282732</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y14" t="n">
-        <v>2047.583838282732</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1757.11536893373</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1757.11536893373</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1468.012502059374</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.908724368016</v>
+        <v>1213.328013853487</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.908724368016</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.908724368016</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.908724368016</v>
+        <v>923.9108438165264</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1133.32083113111</v>
+        <v>2034.604709474942</v>
       </c>
       <c r="C17" t="n">
-        <v>764.3583141906979</v>
+        <v>1665.64219253453</v>
       </c>
       <c r="D17" t="n">
-        <v>406.0926155839475</v>
+        <v>1307.376493927779</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839475</v>
+        <v>921.5882413295351</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>510.6023365399275</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>95.529886384924</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>95.529886384924</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.0546934046018</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5712,13 +5712,13 @@
         <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>970.0546934046018</v>
+        <v>759.2110908657279</v>
       </c>
       <c r="X19" t="n">
-        <v>970.0546934046018</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="Y19" t="n">
-        <v>970.0546934046018</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1175.30093260579</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C20" t="n">
-        <v>806.3384156653785</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>806.3384156653785</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>806.3384156653785</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>395.352510875771</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>395.352510875771</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>97.7689104845382</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
@@ -5761,13 +5761,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5788,16 +5788,16 @@
         <v>3009.337405520489</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176918</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.505862906803</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X20" t="n">
-        <v>1952.040104645724</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.900772669912</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2151.073568494537</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C22" t="n">
-        <v>1982.13738556663</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D22" t="n">
-        <v>1832.020746154295</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E22" t="n">
-        <v>1684.107652571901</v>
+        <v>315.7463345171083</v>
       </c>
       <c r="F22" t="n">
-        <v>1537.217705073991</v>
+        <v>168.8563870191979</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V22" t="n">
-        <v>3070.921333403285</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W22" t="n">
-        <v>2781.504163366324</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X22" t="n">
-        <v>2553.514612468307</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y22" t="n">
-        <v>2332.722033324777</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1685.375546116518</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C23" t="n">
-        <v>1316.413029176106</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D23" t="n">
-        <v>958.1473305693555</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>572.3590779711112</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>572.3590779711112</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X23" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y23" t="n">
-        <v>2071.975386180639</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>95.00286517111721</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1837.464090846021</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>1767.918581386758</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.501411349798</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.51186045178</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.71928130825</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796265</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C26" t="n">
-        <v>552.8079389392149</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D26" t="n">
-        <v>194.5422403324644</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="E26" t="n">
-        <v>66.51211643218343</v>
+        <v>763.1367659325592</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943748</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>332.773976541745</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>163.8377936138381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>163.8377936138381</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1796.409096530736</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1507.30622965638</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V28" t="n">
-        <v>1252.621741450493</v>
+        <v>1372.22619386346</v>
       </c>
       <c r="W28" t="n">
-        <v>963.2045714135322</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X28" t="n">
-        <v>735.2150205155149</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.4224413719847</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796265</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="C29" t="n">
-        <v>921.7704558796265</v>
+        <v>1645.81552706783</v>
       </c>
       <c r="D29" t="n">
-        <v>563.5047572728761</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
         <v>406.0926155839475</v>
@@ -6460,55 +6460,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943748</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2392.599276780831</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C31" t="n">
-        <v>2223.663093852924</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D31" t="n">
-        <v>2073.546454440589</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E31" t="n">
-        <v>1925.633360858196</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F31" t="n">
-        <v>1778.743413360285</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="G31" t="n">
-        <v>1611.040576735004</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.605821609171</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>3325.605821609171</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>3312.447041689579</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>3023.029871652619</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>2795.040320754601</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>2574.247741611071</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796265</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C32" t="n">
-        <v>552.8079389392149</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3003690304276</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="E32" t="n">
-        <v>66.51211643218343</v>
+        <v>957.5907980264815</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218343</v>
+        <v>546.604893236874</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>131.5324430818704</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943748</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>310.0549803959803</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>310.0549803959803</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>310.0549803959803</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y34" t="n">
-        <v>310.0549803959803</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1964.273285499504</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1595.310768559092</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>1237.045069952341</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2741.012457539437</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="X35" t="n">
-        <v>2741.012457539437</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y35" t="n">
-        <v>2350.873125563625</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952862</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952862</v>
+        <v>425.0581006481905</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952862</v>
+        <v>274.9414612358547</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952862</v>
+        <v>127.0283676534616</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193526</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763052</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682808</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W37" t="n">
-        <v>1989.118339645848</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X37" t="n">
-        <v>1761.12878874783</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y37" t="n">
-        <v>1540.3362096043</v>
+        <v>775.6427484063371</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1986.901740067214</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C38" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V38" t="n">
-        <v>2729.809727313141</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W38" t="n">
-        <v>2377.041072043026</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X38" t="n">
-        <v>2377.041072043026</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y38" t="n">
-        <v>1986.901740067214</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.32286476305</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888694</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>2278.535509682807</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>1989.118339645846</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>1761.128788747829</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1540.336209604299</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038044</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097632</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490882</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926375</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030299</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>298.6298631030299</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7444,19 +7444,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077977</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102166</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>917.9306290998774</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C43" t="n">
-        <v>748.9944461719705</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D43" t="n">
-        <v>598.8778067596347</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E43" t="n">
-        <v>450.9647131772416</v>
+        <v>304.7348788872308</v>
       </c>
       <c r="F43" t="n">
-        <v>304.0747656793312</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="G43" t="n">
-        <v>136.3719290540502</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1548.361223971664</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>1548.361223971664</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>1320.371673073647</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1099.579093930117</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1715.892666966217</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C44" t="n">
-        <v>1346.930150025805</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D44" t="n">
-        <v>988.6644514190546</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E44" t="n">
-        <v>602.8761988208103</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F44" t="n">
-        <v>191.8902940312027</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.09759726723</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W44" t="n">
-        <v>2866.09759726723</v>
+        <v>2392.57698645293</v>
       </c>
       <c r="X44" t="n">
-        <v>2492.63183900615</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y44" t="n">
-        <v>2102.492507030338</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2088.986216231254</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C46" t="n">
-        <v>2088.986216231254</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D46" t="n">
-        <v>2088.986216231254</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.95903803985</v>
+        <v>304.7348788872308</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.06909054194</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.839206178698</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>2814.736339304341</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>2560.051851098454</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>2270.634681061494</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>2270.634681061494</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>2270.634681061494</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127281</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711115</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777592</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159743</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>147.3598584166012</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457086</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>145.2551346857775</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>211.0329012241564</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>74.03418926528931</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457083</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711116</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971609</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046878</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>348.2863176346417</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.3652991436814</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988705</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>18.86898237295591</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590693</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.360646473773016</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>7.279325205049247</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550659</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714241</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459988</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22716,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845829</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>22.54475050117139</v>
       </c>
       <c r="V4" t="n">
-        <v>139.385976782637</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>141.976052267718</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>177.7473046046873</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>167.1574544543627</v>
+        <v>158.4366676010528</v>
       </c>
       <c r="E5" t="n">
-        <v>216.757832896167</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368126</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833735</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714232</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>95.4144582123842</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>64.1693959945994</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098415</v>
+        <v>97.16487562860998</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553079</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,22 +22992,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>19.254668629176</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632377989</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>257.2579961018916</v>
+        <v>142.4576359736429</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>98.99741117027079</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>145.451690736242</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543631</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059419</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>221.0654014799591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23120,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.59026569570388</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23187,22 +23187,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>16.78604496897364</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>136.1618351557698</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>102.5552677716039</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>235.6797139074001</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.86303836698806</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>320.5133764642001</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>345.5834682595418</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.9698866949904</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>21.29163796822743</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>209.4348714989683</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>12.84933751971278</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.3433971668336</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>77.78783182310582</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>144.9899196596984</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>10.63270366109474</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.35543628911051</v>
+        <v>64.7049803778839</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24183,7 +24183,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>56.52012909121657</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>246.3179278901613</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>137.8199670074838</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>183.2875889591581</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>128.1393683897929</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>89.97235223399039</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>111.9379472486565</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>327.0855007190661</v>
       </c>
       <c r="E29" t="n">
-        <v>226.0923498002225</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>148.7699267806261</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>255.1805474109836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>230.2376410041303</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>61.76674224145185</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.3497438692351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>40.90051748247038</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>292.3254924742265</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>85.50995931386585</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>139.5478467564287</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>302.0150290037639</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270133</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>64.81119518318249</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25684,13 +25684,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>45.35872638993175</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>75.60632145146256</v>
       </c>
       <c r="H43" t="n">
-        <v>75.5938004186727</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>286.7973298304244</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>113.4776141299473</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>81.06705623707954</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>75.60632145146256</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>470601.0454114968</v>
+        <v>533535.276715002</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>470601.0454114975</v>
+        <v>645018.6546636448</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>470601.0454114971</v>
+        <v>798289.7084872781</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510326</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878691.7618510331</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878691.7618510326</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878691.761851033</v>
+        <v>878691.7618510328</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171419.5356187814</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="C2" t="n">
-        <v>171419.5356187816</v>
+        <v>234651.8339453228</v>
       </c>
       <c r="D2" t="n">
-        <v>171419.5356187815</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223745</v>
@@ -26337,13 +26337,13 @@
         <v>323947.2440223745</v>
       </c>
       <c r="J2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="L2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="M2" t="n">
         <v>323947.2440223745</v>
@@ -26352,10 +26352,10 @@
         <v>323947.2440223744</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>680087.9805911927</v>
       </c>
       <c r="C3" t="n">
-        <v>6.73715068785441e-10</v>
+        <v>174787.7031330589</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>225670.615630709</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>1.243522547156317e-10</v>
+        <v>40638.73104112945</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>55419.25877810587</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10637.53658444007</v>
+        <v>13649.1745529751</v>
       </c>
       <c r="C4" t="n">
-        <v>10637.53658444008</v>
+        <v>15515.03330562076</v>
       </c>
       <c r="D4" t="n">
-        <v>10637.53658444007</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.40310209149</v>
       </c>
       <c r="G4" t="n">
         <v>9770.403102091475</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>75611.38525919239</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26496,16 +26496,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-487560.7038981174</v>
+        <v>-573344.4213979287</v>
       </c>
       <c r="C6" t="n">
-        <v>103796.1986227272</v>
+        <v>-39438.23547571832</v>
       </c>
       <c r="D6" t="n">
-        <v>103796.1986227281</v>
+        <v>-51746.66781344254</v>
       </c>
       <c r="E6" t="n">
-        <v>-387264.1432747779</v>
+        <v>54321.33124363797</v>
       </c>
       <c r="F6" t="n">
-        <v>239870.5003588897</v>
+        <v>236394.3110608288</v>
       </c>
       <c r="G6" t="n">
-        <v>239870.5003588898</v>
+        <v>236394.3110608285</v>
       </c>
       <c r="H6" t="n">
-        <v>239870.5003588898</v>
+        <v>236394.3110608287</v>
       </c>
       <c r="I6" t="n">
-        <v>239870.5003588898</v>
+        <v>236394.3110608287</v>
       </c>
       <c r="J6" t="n">
-        <v>190805.5556303451</v>
+        <v>167395.1566417147</v>
       </c>
       <c r="K6" t="n">
-        <v>239870.5003588896</v>
+        <v>195755.5800196993</v>
       </c>
       <c r="L6" t="n">
-        <v>239870.5003588897</v>
+        <v>180975.0522827226</v>
       </c>
       <c r="M6" t="n">
-        <v>79414.05849101234</v>
+        <v>188842.0452674137</v>
       </c>
       <c r="N6" t="n">
-        <v>239870.5003588897</v>
+        <v>236394.3110608287</v>
       </c>
       <c r="O6" t="n">
-        <v>239870.5003588898</v>
+        <v>236394.3110608287</v>
       </c>
       <c r="P6" t="n">
-        <v>239870.5003588897</v>
+        <v>236394.3110608288</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663202</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>614.055013769478</v>
       </c>
       <c r="C3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>135.925942728132</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>184.0839356199291</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>157.9012582804758</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>218.969693818057</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359728</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>157.9012582804756</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>218.969693818057</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>157.9012582804758</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>218.969693818057</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>3.014998820090892</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>255.8942561066896</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>383.5191561611372</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>475.7894263014939</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>529.4074115682853</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>537.9737769658685</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>507.9933824485897</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>433.5605990775957</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>325.5859538330906</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>189.3909196325347</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>68.70428561282128</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>13.19815733494789</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.2411999056072713</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.613166585674105</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>55.54104253307773</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>152.4088658859908</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>260.4910271261558</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>350.2623325605112</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>408.7396212911974</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>419.5577428240734</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>383.8133674257156</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>308.0440649433297</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>205.919299602891</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>6.502193386993428</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.1061293806364543</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>1.352424675651428</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>12.02428484351907</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>40.67109842777204</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>95.61642456855594</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>157.1271577711386</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>201.0686649600314</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>211.9987152932506</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>206.9578596840045</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>163.5696171351508</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>60.80993132519963</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>23.56907366567078</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>5.778541795965189</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.07376861867189614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663197</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663197</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068201</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>74.84835158000331</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>163.4293051161566</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>240.0230113315067</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>299.0611783410126</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>308.5607133692776</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>277.895171026903</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>202.3276033223262</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>103.2802639586411</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781481</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>266.6055873691791</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>288.2160307407401</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>241.2171229812711</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>213.2973839334707</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.257244451883167</v>
       </c>
       <c r="K7" t="n">
-        <v>92.63945645062408</v>
+        <v>134.8576659452557</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646086</v>
+        <v>228.6586902203475</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663202</v>
+        <v>251.5825922550912</v>
       </c>
       <c r="N7" t="n">
-        <v>168.9203199809859</v>
+        <v>251.0900320632331</v>
       </c>
       <c r="O7" t="n">
-        <v>164.3820236732831</v>
+        <v>215.7442084324797</v>
       </c>
       <c r="P7" t="n">
-        <v>116.8989542469473</v>
+        <v>160.8481764000443</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>27.08508117944473</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>577.9642335061968</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>86.19340501175009</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663199</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663199</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469472</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>543042.0672121374</v>
+        <v>585453.3170060088</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433859.31651125</v>
+        <v>12521087.91900264</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6544539.720854478</v>
+        <v>7541126.413445114</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9516242.476282004</v>
+        <v>9023032.748804763</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>165.4291737832665</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>29.00708539155843</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.60860108437679</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>196.2463740196301</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>153.8072380324132</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y6" t="n">
-        <v>108.5178201486944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>143.7876247641761</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>29.00708539155843</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.2821509272386</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>211.2228407230375</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>36.34498116979601</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>232.4461355124475</v>
       </c>
       <c r="V10" t="n">
-        <v>115.9758081680582</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>200.6329083083233</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>308.3664578818496</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.8416516122262</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>176.2746049568399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>24.14763241892726</v>
       </c>
       <c r="C14" t="n">
-        <v>44.75951530680749</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.7115619691723</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4773873632145</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>274.3094752533441</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>28.72759225321317</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.6947366044282</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>208.7351665134852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>152.660863078854</v>
       </c>
       <c r="C20" t="n">
-        <v>220.2829721113091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>139.214513896785</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>101.3208278811443</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>308.752762679791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>273.8361873678173</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>129.290475485516</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>28.20584125154443</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>278.7366773519186</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>20.7802394535694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>140.1996960751715</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951283</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>27.59754090161685</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>63.30575195597216</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>17.25588147840214</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>134.3501500932815</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>102.8695072550956</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>64.37012338319016</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>116.8722680820408</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>224.7562560951392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>129.9950902990167</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>56.9154762431865</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>105.4800788571757</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>59.9110887090654</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>15.38185492767357</v>
       </c>
       <c r="C38" t="n">
-        <v>225.7250450145789</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249713</v>
+        <v>35.04085089109527</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>105.0023863360926</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>282.3935320802032</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>77.53267938747209</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>90.41948680756566</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>287.7971664995874</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>235.7633545874657</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>90.41948680756566</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744748</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791767</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>820.230080101654</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>553.8524235344762</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>287.4747669672984</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X2" t="n">
-        <v>21.09711040012049</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.09711040012049</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.1972859387735</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957456</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298711</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263948</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289997</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557294</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006024</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>858.046441637462</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>858.046441637462</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V3" t="n">
-        <v>858.046441637462</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W3" t="n">
-        <v>603.8090849092603</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X3" t="n">
-        <v>395.9575847037274</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.1972859387735</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>559.1902876777542</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006024</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388465</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329596</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="W4" t="n">
-        <v>267.4157186657818</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="X4" t="n">
-        <v>267.4157186657818</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.0332933280274</v>
+        <v>44.30213322740502</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.588106027445</v>
+        <v>359.7826784871775</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.588106027445</v>
+        <v>359.7826784871775</v>
       </c>
       <c r="D5" t="n">
-        <v>956.3594454015558</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="E5" t="n">
-        <v>956.3594454015558</v>
+        <v>170.3628934706927</v>
       </c>
       <c r="F5" t="n">
-        <v>545.3735406119483</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038229</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038229</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>107.8290791267618</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>269.6240911917569</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>507.2468724099484</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>803.3174389675509</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
-        <v>1108.792545203136</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O5" t="n">
-        <v>1383.90876451977</v>
+        <v>649.4845259985583</v>
       </c>
       <c r="P5" t="n">
-        <v>1584.213091808873</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q5" t="n">
-        <v>1686.460553127927</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R5" t="n">
-        <v>1686.460553127927</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003257</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="T5" t="n">
-        <v>1544.727438003257</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="U5" t="n">
-        <v>1544.727438003257</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="V5" t="n">
-        <v>1544.727438003257</v>
+        <v>738.6222485201472</v>
       </c>
       <c r="W5" t="n">
-        <v>1544.727438003257</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="X5" t="n">
-        <v>1544.727438003257</v>
+        <v>549.2024635036623</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.588106027445</v>
+        <v>359.7826784871775</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>748.6875884097325</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C6" t="n">
-        <v>574.2345591286055</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D6" t="n">
-        <v>574.2345591286055</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E6" t="n">
-        <v>414.9971041231499</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F6" t="n">
-        <v>268.4625461500349</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G6" t="n">
-        <v>131.361181930301</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>305.2979551469729</v>
+        <v>67.1341887702421</v>
       </c>
       <c r="L6" t="n">
-        <v>514.8888283998035</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>778.8283598952908</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.162230328624</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.967182080082</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.296143033791</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>1686.460553127927</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>1686.460553127927</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648993</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T6" t="n">
-        <v>1347.691013115833</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U6" t="n">
-        <v>1347.691013115833</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V6" t="n">
-        <v>1112.53890488409</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W6" t="n">
-        <v>858.3015481558884</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X6" t="n">
-        <v>858.3015481558884</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y6" t="n">
-        <v>748.6875884097325</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>35.96388306992289</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>169.472972355726</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L7" t="n">
-        <v>395.84507567387</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M7" t="n">
-        <v>644.9118420064103</v>
+        <v>448.2056470819957</v>
       </c>
       <c r="N7" t="n">
-        <v>893.4909737490111</v>
+        <v>471.6341805242519</v>
       </c>
       <c r="O7" t="n">
-        <v>1107.077740097166</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P7" t="n">
-        <v>1266.31743473321</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q7" t="n">
-        <v>1293.13166510086</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R7" t="n">
-        <v>1175.471604442305</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="S7" t="n">
-        <v>1175.471604442305</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="T7" t="n">
-        <v>951.0604452177427</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="U7" t="n">
-        <v>805.8204202034234</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="V7" t="n">
-        <v>551.1359319975365</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="W7" t="n">
-        <v>261.7187619605759</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="X7" t="n">
-        <v>33.72921106255855</v>
+        <v>44.30213322740502</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.72921106255855</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.286642562605</v>
+        <v>717.0015419180347</v>
       </c>
       <c r="C8" t="n">
-        <v>1206.286642562605</v>
+        <v>474.77129127005</v>
       </c>
       <c r="D8" t="n">
-        <v>848.0209439558549</v>
+        <v>232.5410406220653</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2326913576107</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>643.3443219779382</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>924.2476725444243</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>959.2317925660193</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>959.2317925660194</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>85.30141548166314</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>152.9092351450201</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>290.1388331607139</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>469.6361695153187</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>668.2929111679832</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>827.8052238367437</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>936.4948513640425</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>938.1198929682062</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>741.1305971282937</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>704.4184949365806</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>469.2663867048379</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>227.0361360568532</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>19.18463585132039</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.992271614743</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="C10" t="n">
-        <v>496.992271614743</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="D10" t="n">
-        <v>346.8756322024072</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>656.2710011584451</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>830.3658965470439</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>955.8134731456595</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>724.4377162908199</v>
       </c>
       <c r="V10" t="n">
-        <v>1007.202020795234</v>
+        <v>482.2074656428352</v>
       </c>
       <c r="W10" t="n">
-        <v>717.7848507582731</v>
+        <v>239.9772149948505</v>
       </c>
       <c r="X10" t="n">
-        <v>717.7848507582731</v>
+        <v>239.9772149948505</v>
       </c>
       <c r="Y10" t="n">
-        <v>496.992271614743</v>
+        <v>19.18463585132039</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1514.348043559526</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="C11" t="n">
-        <v>1514.348043559526</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D11" t="n">
-        <v>1514.348043559526</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E11" t="n">
-        <v>1128.559790961282</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="F11" t="n">
-        <v>717.5738861716743</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792692</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796418</v>
+        <v>2531.483610522578</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535338</v>
+        <v>2158.017852261498</v>
       </c>
       <c r="Y11" t="n">
-        <v>1514.348043559526</v>
+        <v>1767.878520285687</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.2513404403938</v>
+        <v>644.333856642796</v>
       </c>
       <c r="C13" t="n">
-        <v>361.3151575124869</v>
+        <v>644.333856642796</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>644.333856642796</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791188</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764911</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760399</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581904</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="T13" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1446.505797040963</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V13" t="n">
-        <v>1268.450640518902</v>
+        <v>1161.740577577774</v>
       </c>
       <c r="W13" t="n">
-        <v>979.0334704819413</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="X13" t="n">
-        <v>751.043919583924</v>
+        <v>644.333856642796</v>
       </c>
       <c r="Y13" t="n">
-        <v>530.2513404403938</v>
+        <v>644.333856642796</v>
       </c>
     </row>
     <row r="14">
@@ -5254,61 +5254,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1681.836054204827</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
         <v>2755.806928794324</v>
@@ -5317,13 +5317,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y14" t="n">
-        <v>1681.836054204827</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.9108438165264</v>
+        <v>645.3078929297407</v>
       </c>
       <c r="C16" t="n">
-        <v>754.9746608886195</v>
+        <v>476.3717100018338</v>
       </c>
       <c r="D16" t="n">
-        <v>604.8580214762837</v>
+        <v>326.255070589498</v>
       </c>
       <c r="E16" t="n">
-        <v>456.9449278938906</v>
+        <v>178.3419770071049</v>
       </c>
       <c r="F16" t="n">
-        <v>310.0549803959803</v>
+        <v>178.3419770071049</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1757.11536893373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1757.11536893373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1468.012502059374</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V16" t="n">
-        <v>1213.328013853487</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W16" t="n">
-        <v>923.9108438165264</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X16" t="n">
-        <v>923.9108438165264</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.9108438165264</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2034.604709474942</v>
+        <v>1955.701599376001</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.64219253453</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1307.376493927779</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>921.5882413295351</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>510.6023365399275</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>95.529886384924</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>95.529886384924</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450753</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.744041450753</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y17" t="n">
-        <v>2034.604709474942</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.2215399677106</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="C19" t="n">
-        <v>531.2215399677106</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="D19" t="n">
-        <v>381.1049005553748</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W19" t="n">
-        <v>759.2110908657279</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X19" t="n">
-        <v>531.2215399677106</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.2215399677106</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1859.132475219475</v>
+        <v>1544.306735920717</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2635.871647259409</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2245.732315283597</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>463.6594280995014</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C22" t="n">
-        <v>463.6594280995014</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D22" t="n">
-        <v>463.6594280995014</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E22" t="n">
-        <v>315.7463345171083</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F22" t="n">
-        <v>168.8563870191979</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.507193008249</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W22" t="n">
-        <v>1094.090022971289</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X22" t="n">
-        <v>866.1004720732712</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y22" t="n">
-        <v>645.3078929297411</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1887.813801820606</v>
+        <v>1867.116698829639</v>
       </c>
       <c r="C23" t="n">
-        <v>1575.942324366272</v>
+        <v>1498.154181889227</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1139.888483282477</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>754.1002306842327</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>343.1143258946251</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W23" t="n">
-        <v>2277.953133796418</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X23" t="n">
-        <v>2277.953133796418</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y23" t="n">
-        <v>1887.813801820606</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241.8928126690276</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C25" t="n">
-        <v>241.8928126690276</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D25" t="n">
-        <v>241.8928126690276</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>241.8928126690276</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>95.00286517111721</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>644.3338566427974</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y25" t="n">
-        <v>423.5412774992673</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1517.887535471215</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1148.925018530804</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>1148.925018530804</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>763.1367659325592</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G26" t="n">
         <v>66.51211643218342</v>
@@ -6226,19 +6226,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796417</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535337</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y26" t="n">
-        <v>1904.487375535337</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6296,31 +6296,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
         <v>66.51211643218342</v>
@@ -6384,16 +6384,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,10 +6405,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
         <v>1735.608663915319</v>
@@ -6417,19 +6417,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V28" t="n">
-        <v>1372.22619386346</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W28" t="n">
-        <v>1082.809023826499</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X28" t="n">
-        <v>1082.809023826499</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0164446829692</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2014.778044008242</v>
+        <v>1753.263343671913</v>
       </c>
       <c r="C29" t="n">
-        <v>1645.81552706783</v>
+        <v>1384.300826731502</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1384.300826731502</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>998.5125741332572</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>587.5266693436497</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>172.4542191886462</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539436</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269321</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008242</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y29" t="n">
-        <v>2014.778044008242</v>
+        <v>2139.863183736035</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>231.8553933260938</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>231.8553933260938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>231.8553933260938</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>83.94229974370072</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>83.94229974370072</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6651,22 +6651,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1599.901441598873</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696239</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260938</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1712.341567565137</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C32" t="n">
-        <v>1343.379050624726</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D32" t="n">
-        <v>1343.379050624726</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E32" t="n">
-        <v>957.5907980264815</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F32" t="n">
-        <v>546.604893236874</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>131.5324430818704</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6700,16 +6700,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2489.080739605071</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>2098.941407629259</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>482.5946454693777</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>332.478006057042</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>184.5649124746488</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6891,19 +6891,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1705.527932658019</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1705.527932658019</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>1478.501411349798</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.51186045178</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.71928130825</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>2107.513093752762</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W35" t="n">
-        <v>2367.25366140713</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="X35" t="n">
-        <v>2367.25366140713</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>2494.112933816884</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>593.9942835760974</v>
+        <v>785.680167749271</v>
       </c>
       <c r="C37" t="n">
-        <v>425.0581006481905</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>274.9414612358547</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>127.0283676534616</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V37" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W37" t="n">
-        <v>1224.424878447885</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X37" t="n">
-        <v>996.4353275498672</v>
+        <v>1188.121211723041</v>
       </c>
       <c r="Y37" t="n">
-        <v>775.6427484063371</v>
+        <v>967.3286325795108</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1506.363819949361</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.358723975039</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V38" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W38" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y38" t="n">
-        <v>1892.963660013483</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
         <v>315.6219318279954</v>
@@ -7368,16 +7368,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696239</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.8553933260938</v>
+        <v>714.5294324299979</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1636.624422581789</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>916.6290841382818</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>558.3633855315313</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>172.5751329332871</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>172.5751329332871</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810548</v>
@@ -7426,37 +7426,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883008</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V41" t="n">
-        <v>2786.829352882803</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W41" t="n">
-        <v>2786.829352882803</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X41" t="n">
-        <v>2413.363594621723</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y41" t="n">
-        <v>2023.224262645911</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,13 +7505,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>452.6479724696239</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C43" t="n">
-        <v>452.6479724696239</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D43" t="n">
-        <v>452.6479724696239</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>304.7348788872308</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>157.8449313893205</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1548.361223971663</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1293.676735765776</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>1004.259565728815</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696239</v>
+        <v>776.2700148307981</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.6479724696239</v>
+        <v>776.2700148307981</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1632.511388127729</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.548871187317</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D44" t="n">
-        <v>905.2831725805665</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W44" t="n">
-        <v>2392.57698645293</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X44" t="n">
-        <v>2019.11122819185</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y44" t="n">
-        <v>2019.11122819185</v>
+        <v>2635.871647259407</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>452.6479724696239</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C46" t="n">
-        <v>452.6479724696239</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D46" t="n">
-        <v>452.6479724696239</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>304.7348788872308</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>157.8449313893205</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.6479724696239</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127281</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,19 +8139,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>74.60115408961745</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.19461818159743</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>147.3598584166012</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,10 +8382,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>154.1946371899311</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>73.01783107116353</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8622,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>111.3252676074461</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>217.5613044873861</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>18.86898237295591</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862882</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590693</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>7.279325205049247</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>40.60044802738295</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>124.4265854402611</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117139</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508492</v>
+        <v>98.99741117027105</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.1840682227172</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.976052267718</v>
+        <v>31.05906618577484</v>
       </c>
     </row>
     <row r="5">
@@ -22789,22 +22789,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>158.4366676010528</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>253.0688077092982</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>86.52244598482508</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y6" t="n">
-        <v>97.16487562860998</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>19.25466862917628</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>142.4576359736429</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>98.99741117027105</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>38.1840682227172</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>189.5775679605364</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145.451690736242</v>
+        <v>142.9258935219757</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>125.4649436295027</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>114.8750934791781</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>170.7075293492243</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>189.5124184441499</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>11.88703501941475</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,25 +23184,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>53.81451914564954</v>
       </c>
       <c r="V10" t="n">
-        <v>136.1618351557698</v>
+        <v>12.32969518232315</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>46.71505019508615</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>182.1009333551573</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>102.5552677716039</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.59231103434296</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.86303836698806</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>358.5862092445533</v>
       </c>
       <c r="C14" t="n">
-        <v>320.5133764642001</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>55.31424628985594</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>21.29163796822743</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>90.9634165176634</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>12.84933751971278</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>60.06027830989258</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>77.78783182310582</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>230.0729785846266</v>
       </c>
       <c r="C20" t="n">
-        <v>144.9899196596984</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>40.61746628515226</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>64.7049803778839</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>56.52012909121657</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>137.0855382856362</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>50.5415046964213</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>137.8199670074838</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>128.1393683897929</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>348.9508612248997</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>111.9379472486565</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>327.0855007190661</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>231.3020124313483</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>148.7699267806261</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>85.19879918288771</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>304.0065384866158</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>230.2376410041303</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>28.54877994089046</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>61.76674224145185</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>235.2778014719909</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>292.3254924742265</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>61.76674224145214</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>85.50995931386585</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>367.351986735807</v>
       </c>
       <c r="C38" t="n">
-        <v>139.5478467564287</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696602</v>
+        <v>144.791129290842</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>305.9193393173608</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>45.35872638993175</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>102.2993007944652</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>75.60632145146256</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>94.93667516389314</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>113.4776141299473</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>75.60632145146256</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.1421360569671</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533535.276715002</v>
+        <v>470601.0454114971</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>645018.6546636448</v>
+        <v>470601.0454114971</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>798289.7084872781</v>
+        <v>514298.045447998</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510325</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878691.7618510326</v>
+        <v>878691.761851033</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510326</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878691.7618510327</v>
+        <v>878691.761851033</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510327</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510326</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878691.7618510328</v>
+        <v>878691.7618510326</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>234651.8339453228</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>290673.0489695932</v>
+        <v>186902.592222389</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="F2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="I2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="J2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="K2" t="n">
         <v>323947.2440223745</v>
       </c>
-      <c r="G2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="H2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="I2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="J2" t="n">
-        <v>323947.2440223746</v>
-      </c>
-      <c r="K2" t="n">
-        <v>323947.2440223746</v>
-      </c>
       <c r="L2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223742</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223743</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>174787.7031330589</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225670.615630709</v>
+        <v>54784.37480766079</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>575366.1973577661</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>49064.94472854448</v>
       </c>
       <c r="K3" t="n">
-        <v>40638.73104112945</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>55419.25877810587</v>
+        <v>13232.19502157049</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>147427.4683834173</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13649.1745529751</v>
+        <v>10637.53658444007</v>
       </c>
       <c r="C4" t="n">
-        <v>15515.03330562076</v>
+        <v>10637.53658444007</v>
       </c>
       <c r="D4" t="n">
-        <v>18583.86599059036</v>
+        <v>12820.08983453028</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.403102091514</v>
       </c>
       <c r="F4" t="n">
         <v>9770.40310209149</v>
@@ -26456,10 +26456,10 @@
         <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.403102091499</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.403102091477</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>75611.38525919239</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139324</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26490,13 +26490,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26505,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-573344.4213979287</v>
+        <v>-488711.1002405742</v>
       </c>
       <c r="C6" t="n">
-        <v>-39438.23547571832</v>
+        <v>102645.8022802713</v>
       </c>
       <c r="D6" t="n">
-        <v>-51746.66781344254</v>
+        <v>57083.51877496597</v>
       </c>
       <c r="E6" t="n">
-        <v>54321.33124363797</v>
+        <v>-335843.3159286826</v>
       </c>
       <c r="F6" t="n">
-        <v>236394.3110608288</v>
+        <v>239522.8814290831</v>
       </c>
       <c r="G6" t="n">
-        <v>236394.3110608285</v>
+        <v>239522.8814290836</v>
       </c>
       <c r="H6" t="n">
-        <v>236394.3110608287</v>
+        <v>239522.8814290836</v>
       </c>
       <c r="I6" t="n">
-        <v>236394.3110608287</v>
+        <v>239522.8814290836</v>
       </c>
       <c r="J6" t="n">
-        <v>167395.1566417147</v>
+        <v>190457.9367005391</v>
       </c>
       <c r="K6" t="n">
-        <v>195755.5800196993</v>
+        <v>239522.8814290835</v>
       </c>
       <c r="L6" t="n">
-        <v>180975.0522827226</v>
+        <v>226290.6864075131</v>
       </c>
       <c r="M6" t="n">
-        <v>188842.0452674137</v>
+        <v>92095.41304566633</v>
       </c>
       <c r="N6" t="n">
-        <v>236394.3110608287</v>
+        <v>239522.8814290836</v>
       </c>
       <c r="O6" t="n">
-        <v>236394.3110608287</v>
+        <v>239522.8814290836</v>
       </c>
       <c r="P6" t="n">
-        <v>236394.3110608288</v>
+        <v>239522.8814290834</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>749.98095649761</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>421.6151382819818</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,34 +26959,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>135.925942728132</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184.0839356199291</v>
+        <v>45.00615942516015</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>496.3006002552328</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>157.9012582804758</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>218.969693818057</v>
+        <v>52.2823609751849</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>591.5935072607872</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>157.9012582804756</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>218.969693818057</v>
+        <v>52.28236097518479</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>591.5935072607875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>157.9012582804758</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>218.969693818057</v>
+        <v>52.2823609751849</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>591.5935072607872</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.014998820090892</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>30.87735666625586</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J5" t="n">
-        <v>255.8942561066896</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>383.5191561611372</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>475.7894263014939</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>529.4074115682853</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>537.9737769658685</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O5" t="n">
-        <v>507.9933824485897</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>433.5605990775957</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.5859538330906</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>189.3909196325347</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>68.70428561282128</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>13.19815733494789</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.613166585674105</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>15.57979307743149</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J6" t="n">
-        <v>152.4088658859908</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>260.4910271261558</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>350.2623325605112</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>408.7396212911974</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N6" t="n">
-        <v>419.5577428240734</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>383.8133674257156</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>308.0440649433297</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.919299602891</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96386179969223</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.352424675651428</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H7" t="n">
-        <v>12.02428484351907</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I7" t="n">
-        <v>40.67109842777204</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>95.61642456855594</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1271577711386</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>201.0686649600314</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>211.9987152932506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>206.9578596840045</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>191.15908051844</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>163.5696171351508</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.2471244311391</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987485</v>
@@ -34237,10 +34237,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250137</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>75.941511397018</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.84835158000331</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K5" t="n">
-        <v>163.4293051161566</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0230113315067</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0611783410126</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N5" t="n">
-        <v>308.5607133692776</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O5" t="n">
-        <v>277.895171026903</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P5" t="n">
-        <v>202.3276033223262</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.2802639586411</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>52.65872908781466</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q6" t="n">
-        <v>213.2973839334707</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.257244451883167</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>134.8576659452557</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L7" t="n">
-        <v>228.6586902203475</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>251.5825922550912</v>
+        <v>170.3060203105426</v>
       </c>
       <c r="N7" t="n">
-        <v>251.0900320632331</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O7" t="n">
-        <v>215.7442084324797</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>160.8481764000443</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.08508117944473</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>66.7846258892351</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>68.29072693268378</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>138.6157555714079</v>
       </c>
       <c r="M9" t="n">
-        <v>577.9642335061968</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>22.96660727472414</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>147.4099394863219</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>3.452847899353401</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
         <v>159.233896612727</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
